--- a/IP-Adressen umrechnen.xlsx
+++ b/IP-Adressen umrechnen.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dez vs. Bin vs. Hex" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="IP-Adressen" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Bit | Nibbles | Bytes| KB | KiB" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
   <si>
     <t xml:space="preserve">Dezimal (Basis 10)</t>
   </si>
@@ -80,9 +81,36 @@
     <t xml:space="preserve">16⁰</t>
   </si>
   <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
     <t xml:space="preserve">Summe</t>
   </si>
   <si>
+    <t xml:space="preserve">Ziffern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
     <t xml:space="preserve">f</t>
   </si>
   <si>
@@ -98,10 +126,130 @@
     <t xml:space="preserve">c</t>
   </si>
   <si>
-    <t xml:space="preserve">=</t>
-  </si>
-  <si>
     <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 oder 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Nibble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 … F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hexadezimale Ziffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Byte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B = 8b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z.B. A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 hexadezimale Ziffern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilobyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10³ B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibibyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 KiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2¹⁰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Megabyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10⁶ B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mibibyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 MiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2²⁰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigabyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10⁹ B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibibyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 GiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2³⁰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrabyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10¹² B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tebibyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 TiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2⁴⁰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petabyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10¹⁵ B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pebibyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 PiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2⁵⁰</t>
   </si>
 </sst>
 </file>
@@ -254,36 +402,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -315,10 +475,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -339,6 +495,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,9 +516,9 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>15120</xdr:colOff>
+      <xdr:colOff>15480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>614880</xdr:rowOff>
+      <xdr:rowOff>615240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -373,16 +533,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5406600">
-          <a:off x="2135160" y="1089000"/>
-          <a:ext cx="322560" cy="1324080"/>
+          <a:off x="2135520" y="1089360"/>
+          <a:ext cx="322200" cy="1323720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 322560"/>
-            <a:gd name="textAreaRight" fmla="*/ 116280 w 322560"/>
-            <a:gd name="textAreaTop" fmla="*/ 34200 h 1324080"/>
-            <a:gd name="textAreaBottom" fmla="*/ 1289880 h 1324080"/>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 322200"/>
+            <a:gd name="textAreaRight" fmla="*/ 116280 w 322200"/>
+            <a:gd name="textAreaTop" fmla="*/ 34200 h 1323720"/>
+            <a:gd name="textAreaBottom" fmla="*/ 1289880 h 1323720"/>
           </a:gdLst>
           <a:ahLst/>
           <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
@@ -440,7 +600,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
@@ -448,7 +608,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>264960</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -457,16 +617,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5406600">
-          <a:off x="3884400" y="970200"/>
-          <a:ext cx="322560" cy="1613880"/>
+          <a:off x="3884760" y="970200"/>
+          <a:ext cx="322200" cy="1613520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 322560"/>
-            <a:gd name="textAreaRight" fmla="*/ 116280 w 322560"/>
-            <a:gd name="textAreaTop" fmla="*/ 41760 h 1613880"/>
-            <a:gd name="textAreaBottom" fmla="*/ 1572120 h 1613880"/>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 322200"/>
+            <a:gd name="textAreaRight" fmla="*/ 116280 w 322200"/>
+            <a:gd name="textAreaTop" fmla="*/ 41760 h 1613520"/>
+            <a:gd name="textAreaBottom" fmla="*/ 1572120 h 1613520"/>
           </a:gdLst>
           <a:ahLst/>
           <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
@@ -524,9 +684,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -541,16 +701,16 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5406600">
-          <a:off x="501120" y="1115280"/>
-          <a:ext cx="322560" cy="1324080"/>
+          <a:off x="501480" y="1115640"/>
+          <a:ext cx="322200" cy="1323720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 322560"/>
-            <a:gd name="textAreaRight" fmla="*/ 116280 w 322560"/>
-            <a:gd name="textAreaTop" fmla="*/ 34200 h 1324080"/>
-            <a:gd name="textAreaBottom" fmla="*/ 1289880 h 1324080"/>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 322200"/>
+            <a:gd name="textAreaRight" fmla="*/ 116280 w 322200"/>
+            <a:gd name="textAreaTop" fmla="*/ 34200 h 1323720"/>
+            <a:gd name="textAreaBottom" fmla="*/ 1289880 h 1323720"/>
           </a:gdLst>
           <a:ahLst/>
           <a:rect l="textAreaLeft" t="textAreaTop" r="textAreaRight" b="textAreaBottom"/>
@@ -719,10 +879,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:R11"/>
+  <dimension ref="A4:V21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q13" activeCellId="1" sqref="D9 Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -824,10 +984,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>1</v>
@@ -835,29 +995,23 @@
       <c r="K6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="4" t="str">
-        <f aca="false">DEC2HEX(M11)</f>
-        <v>C</v>
-      </c>
-      <c r="N6" s="4" t="str">
-        <f aca="false">DEC2HEX(N11)</f>
-        <v>B</v>
-      </c>
-      <c r="O6" s="4" t="str">
-        <f aca="false">DEC2HEX(O11)</f>
+      <c r="M6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="P6" s="4" t="str">
-        <f aca="false">DEC2HEX(P11)</f>
-        <v>E</v>
-      </c>
-      <c r="Q6" s="4" t="str">
-        <f aca="false">DEC2HEX(Q11)</f>
-        <v>6</v>
-      </c>
-      <c r="R6" s="4" t="str">
-        <f aca="false">DEC2HEX(R11)</f>
-        <v>A</v>
+      <c r="O6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="50.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -918,22 +1072,22 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="0"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -952,7 +1106,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="0"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -961,54 +1115,189 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="7" t="n">
         <f aca="false">SUM(E6*E7,D6*D7,C6*C7,B6*B7,A6*A7)</f>
         <v>45632</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="6" t="n">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="7" t="n">
         <f aca="false">SUM(K6*K7,J6*J7,I6*I7,H6*H7,G6*G7)</f>
+        <v>27</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="M10" s="8" t="n">
+        <f aca="false">SUM(R7*R11,Q7*Q11,P7*P11,O7*O11,N7*N11,M7*M11)</f>
+        <v>2297216</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M11" s="9" t="n">
+        <f aca="false">HEX2DEC(M6)</f>
+        <v>2</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <f aca="false">HEX2DEC(N6)</f>
+        <v>3</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <f aca="false">HEX2DEC(O6)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <f aca="false">HEX2DEC(P6)</f>
+        <v>13</v>
+      </c>
+      <c r="Q11" s="9" t="n">
+        <f aca="false">HEX2DEC(Q6)</f>
+        <v>8</v>
+      </c>
+      <c r="R11" s="9" t="n">
+        <f aca="false">HEX2DEC(R6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="0"/>
+      <c r="U13" s="0"/>
+      <c r="V13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
+      <c r="V14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="M10" s="6" t="n">
-        <f aca="false">SUM(R7*R11,Q7*Q11,P7*P11,O7*O11,N7*N11,M7*M11)</f>
-        <v>13319786</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M11" s="7" t="n">
+      <c r="N16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N11" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" s="7" t="n">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="Q11" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="R11" s="7" t="n">
-        <v>10</v>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="M4:R4"/>
@@ -1021,6 +1310,7 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="M10:R10"/>
+    <mergeCell ref="A12:R12"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1040,921 +1330,921 @@
   </sheetPr>
   <dimension ref="A1:CG27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="D9 B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="8" width="2.55"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="11" width="2.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="n">
+      <c r="A1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9" t="n">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9" t="n">
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9" t="n">
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9" t="n">
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA1" s="9" t="n">
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA1" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9" t="n">
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9" t="n">
+      <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="12"/>
+      <c r="BM1" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="BN1" s="9"/>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="9"/>
-      <c r="BQ1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BR1" s="9" t="n">
+      <c r="BN1" s="12"/>
+      <c r="BO1" s="12"/>
+      <c r="BP1" s="12"/>
+      <c r="BQ1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR1" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="BS1" s="9"/>
-      <c r="BT1" s="9"/>
-      <c r="BU1" s="9"/>
-      <c r="BV1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="BW1" s="9"/>
-      <c r="BX1" s="9"/>
-      <c r="BY1" s="9"/>
-      <c r="BZ1" s="9" t="n">
+      <c r="BS1" s="12"/>
+      <c r="BT1" s="12"/>
+      <c r="BU1" s="12"/>
+      <c r="BV1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="BW1" s="12"/>
+      <c r="BX1" s="12"/>
+      <c r="BY1" s="12"/>
+      <c r="BZ1" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="CA1" s="9"/>
-      <c r="CB1" s="9"/>
-      <c r="CC1" s="9"/>
-      <c r="CD1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="CE1" s="9"/>
-      <c r="CF1" s="9"/>
-      <c r="CG1" s="9"/>
+      <c r="CA1" s="12"/>
+      <c r="CB1" s="12"/>
+      <c r="CC1" s="12"/>
+      <c r="CD1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="CE1" s="12"/>
+      <c r="CF1" s="12"/>
+      <c r="CG1" s="12"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="P2" s="11"/>
-      <c r="S2" s="10"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="10"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="10"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="10"/>
-      <c r="AH2" s="11"/>
-      <c r="AJ2" s="10"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="10"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="10"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="10"/>
-      <c r="AY2" s="11"/>
-      <c r="BA2" s="10"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="10"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="10"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="10"/>
-      <c r="BP2" s="11"/>
-      <c r="BR2" s="10"/>
-      <c r="BU2" s="11"/>
-      <c r="BV2" s="10"/>
-      <c r="BY2" s="11"/>
-      <c r="BZ2" s="10"/>
-      <c r="CC2" s="11"/>
-      <c r="CD2" s="10"/>
-      <c r="CG2" s="11"/>
+      <c r="A2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="P2" s="14"/>
+      <c r="S2" s="13"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="13"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="13"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="13"/>
+      <c r="AH2" s="14"/>
+      <c r="AJ2" s="13"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="13"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="13"/>
+      <c r="AU2" s="14"/>
+      <c r="AV2" s="13"/>
+      <c r="AY2" s="14"/>
+      <c r="BA2" s="13"/>
+      <c r="BD2" s="14"/>
+      <c r="BE2" s="13"/>
+      <c r="BH2" s="14"/>
+      <c r="BI2" s="13"/>
+      <c r="BL2" s="14"/>
+      <c r="BM2" s="13"/>
+      <c r="BP2" s="14"/>
+      <c r="BR2" s="13"/>
+      <c r="BU2" s="14"/>
+      <c r="BV2" s="13"/>
+      <c r="BY2" s="14"/>
+      <c r="BZ2" s="13"/>
+      <c r="CC2" s="14"/>
+      <c r="CD2" s="13"/>
+      <c r="CG2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12" t="n">
+      <c r="D3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="12" t="n">
+      <c r="H3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="J3" s="13" t="n">
+      <c r="J3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="K3" s="13" t="n">
+      <c r="K3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="12" t="n">
+      <c r="L3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="N3" s="13" t="n">
+      <c r="N3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="O3" s="13" t="n">
+      <c r="O3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="P3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="12" t="n">
+      <c r="P3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="T3" s="13" t="n">
+      <c r="T3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="U3" s="13" t="n">
+      <c r="U3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="V3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" s="12" t="n">
+      <c r="V3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="X3" s="13" t="n">
+      <c r="X3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="Y3" s="13" t="n">
+      <c r="Y3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="Z3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="12" t="n">
+      <c r="Z3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="AB3" s="13" t="n">
+      <c r="AB3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="AC3" s="13" t="n">
+      <c r="AC3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AD3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AD3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="AF3" s="13" t="n">
+      <c r="AF3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="AG3" s="13" t="n">
+      <c r="AG3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AH3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AH3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="AK3" s="13" t="n">
+      <c r="AK3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="AL3" s="13" t="n">
+      <c r="AL3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AM3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AM3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="AO3" s="13" t="n">
+      <c r="AO3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="AP3" s="13" t="n">
+      <c r="AP3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AQ3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AQ3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="AS3" s="13" t="n">
+      <c r="AS3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="AT3" s="13" t="n">
+      <c r="AT3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AU3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="12" t="n">
+      <c r="AU3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="AW3" s="13" t="n">
+      <c r="AW3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="AX3" s="13" t="n">
+      <c r="AX3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="AY3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="12" t="n">
+      <c r="AY3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="BB3" s="13" t="n">
+      <c r="BB3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="BC3" s="13" t="n">
+      <c r="BC3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="BD3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="12" t="n">
+      <c r="BD3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="BF3" s="13" t="n">
+      <c r="BF3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="BG3" s="13" t="n">
+      <c r="BG3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="BH3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="12" t="n">
+      <c r="BH3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="BJ3" s="13" t="n">
+      <c r="BJ3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="BK3" s="13" t="n">
+      <c r="BK3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="BL3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="12" t="n">
+      <c r="BL3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="BN3" s="13" t="n">
+      <c r="BN3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="BO3" s="13" t="n">
+      <c r="BO3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="BP3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR3" s="12" t="n">
+      <c r="BP3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="BS3" s="13" t="n">
+      <c r="BS3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="BT3" s="13" t="n">
+      <c r="BT3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="BU3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV3" s="12" t="n">
+      <c r="BU3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="BW3" s="13" t="n">
+      <c r="BW3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="BX3" s="13" t="n">
+      <c r="BX3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="BY3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ3" s="12" t="n">
+      <c r="BY3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="CA3" s="13" t="n">
+      <c r="CA3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="CB3" s="13" t="n">
+      <c r="CB3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="CC3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD3" s="12" t="n">
+      <c r="CC3" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD3" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="CE3" s="13" t="n">
+      <c r="CE3" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="CF3" s="13" t="n">
+      <c r="CF3" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="CG3" s="14" t="n">
+      <c r="CG3" s="17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15"/>
-      <c r="B4" s="8" t="str">
+      <c r="A4" s="6"/>
+      <c r="B4" s="11" t="str">
         <f aca="false">DEC2HEX(D4)</f>
         <v>F</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="8" t="n">
+      <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="n">
         <f aca="false">SUM(A2*A3,B2*B3,C2*C3,D2*D3)</f>
         <v>15</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="8" t="str">
+      <c r="E4" s="6"/>
+      <c r="F4" s="11" t="str">
         <f aca="false">DEC2HEX(H4)</f>
         <v>E</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="8" t="n">
+      <c r="G4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="11" t="n">
         <f aca="false">SUM(E2*E3,F2*F3,G2*G3,H2*H3)</f>
         <v>14</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="8" t="str">
+      <c r="I4" s="6"/>
+      <c r="J4" s="11" t="str">
         <f aca="false">DEC2HEX(L4)</f>
         <v>8</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="8" t="n">
+      <c r="K4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="11" t="n">
         <f aca="false">SUM(I2*I3,J2*J3,K2*K3,L2*L3)</f>
         <v>8</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="8" t="str">
+      <c r="M4" s="6"/>
+      <c r="N4" s="11" t="str">
         <f aca="false">DEC2HEX(P4)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="8" t="n">
+      <c r="O4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="11" t="n">
         <f aca="false">SUM(M2*M3,N2*N3,O2*O3,P2*P3)</f>
         <v>0</v>
       </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="8" t="str">
+      <c r="S4" s="6"/>
+      <c r="T4" s="11" t="str">
         <f aca="false">DEC2HEX(V4)</f>
         <v>0</v>
       </c>
-      <c r="U4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="8" t="n">
+      <c r="U4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="11" t="n">
         <f aca="false">SUM(S2*S3,T2*T3,U2*U3,V2*V3)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="15"/>
-      <c r="X4" s="8" t="str">
+      <c r="W4" s="6"/>
+      <c r="X4" s="11" t="str">
         <f aca="false">DEC2HEX(Z4)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="8" t="n">
+      <c r="Y4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="11" t="n">
         <f aca="false">SUM(W2*W3,X2*X3,Y2*Y3,Z2*Z3)</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="8" t="str">
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="11" t="str">
         <f aca="false">DEC2HEX(AD4)</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD4" s="8" t="n">
+      <c r="AC4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD4" s="11" t="n">
         <f aca="false">SUM(AA2*AA3,AB2*AB3,AC2*AC3,AD2*AD3)</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="8" t="str">
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="11" t="str">
         <f aca="false">DEC2HEX(AH4)</f>
         <v>0</v>
       </c>
-      <c r="AG4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH4" s="8" t="n">
+      <c r="AG4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH4" s="11" t="n">
         <f aca="false">SUM(AE2*AE3,AF2*AF3,AG2*AG3,AH2*AH3)</f>
         <v>0</v>
       </c>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="8" t="str">
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="11" t="str">
         <f aca="false">DEC2HEX(AM4)</f>
         <v>0</v>
       </c>
-      <c r="AL4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM4" s="8" t="n">
+      <c r="AL4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM4" s="11" t="n">
         <f aca="false">SUM(AJ2*AJ3,AK2*AK3,AL2*AL3,AM2*AM3)</f>
         <v>0</v>
       </c>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="8" t="str">
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="11" t="str">
         <f aca="false">DEC2HEX(AQ4)</f>
         <v>0</v>
       </c>
-      <c r="AP4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ4" s="8" t="n">
+      <c r="AP4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ4" s="11" t="n">
         <f aca="false">SUM(AN2*AN3,AO2*AO3,AP2*AP3,AQ2*AQ3)</f>
         <v>0</v>
       </c>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="8" t="str">
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="11" t="str">
         <f aca="false">DEC2HEX(AU4)</f>
         <v>0</v>
       </c>
-      <c r="AT4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU4" s="8" t="n">
+      <c r="AT4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU4" s="11" t="n">
         <f aca="false">SUM(AR2*AR3,AS2*AS3,AT2*AT3,AU2*AU3)</f>
         <v>0</v>
       </c>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="8" t="str">
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="11" t="str">
         <f aca="false">DEC2HEX(AY4)</f>
         <v>0</v>
       </c>
-      <c r="AX4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY4" s="8" t="n">
+      <c r="AX4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY4" s="11" t="n">
         <f aca="false">SUM(AV2*AV3,AW2*AW3,AX2*AX3,AY2*AY3)</f>
         <v>0</v>
       </c>
-      <c r="BA4" s="15"/>
-      <c r="BB4" s="8" t="str">
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="11" t="str">
         <f aca="false">DEC2HEX(BD4)</f>
         <v>0</v>
       </c>
-      <c r="BC4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD4" s="8" t="n">
+      <c r="BC4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD4" s="11" t="n">
         <f aca="false">SUM(BA2*BA3,BB2*BB3,BC2*BC3,BD2*BD3)</f>
         <v>0</v>
       </c>
-      <c r="BE4" s="15"/>
-      <c r="BF4" s="8" t="str">
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="11" t="str">
         <f aca="false">DEC2HEX(BH4)</f>
         <v>0</v>
       </c>
-      <c r="BG4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH4" s="8" t="n">
+      <c r="BG4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH4" s="11" t="n">
         <f aca="false">SUM(BE2*BE3,BF2*BF3,BG2*BG3,BH2*BH3)</f>
         <v>0</v>
       </c>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="8" t="str">
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="11" t="str">
         <f aca="false">DEC2HEX(BL4)</f>
         <v>0</v>
       </c>
-      <c r="BK4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="BL4" s="8" t="n">
+      <c r="BK4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BL4" s="11" t="n">
         <f aca="false">SUM(BI2*BI3,BJ2*BJ3,BK2*BK3,BL2*BL3)</f>
         <v>0</v>
       </c>
-      <c r="BM4" s="15"/>
-      <c r="BN4" s="8" t="str">
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="11" t="str">
         <f aca="false">DEC2HEX(BP4)</f>
         <v>0</v>
       </c>
-      <c r="BO4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="BP4" s="8" t="n">
+      <c r="BO4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP4" s="11" t="n">
         <f aca="false">SUM(BM2*BM3,BN2*BN3,BO2*BO3,BP2*BP3)</f>
         <v>0</v>
       </c>
-      <c r="BR4" s="15"/>
-      <c r="BS4" s="8" t="str">
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="11" t="str">
         <f aca="false">DEC2HEX(BU4)</f>
         <v>0</v>
       </c>
-      <c r="BT4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="BU4" s="8" t="n">
+      <c r="BT4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BU4" s="11" t="n">
         <f aca="false">SUM(BR2*BR3,BS2*BS3,BT2*BT3,BU2*BU3)</f>
         <v>0</v>
       </c>
-      <c r="BV4" s="15"/>
-      <c r="BW4" s="8" t="str">
+      <c r="BV4" s="6"/>
+      <c r="BW4" s="11" t="str">
         <f aca="false">DEC2HEX(BY4)</f>
         <v>0</v>
       </c>
-      <c r="BX4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="BY4" s="8" t="n">
+      <c r="BX4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="BY4" s="11" t="n">
         <f aca="false">SUM(BV2*BV3,BW2*BW3,BX2*BX3,BY2*BY3)</f>
         <v>0</v>
       </c>
-      <c r="BZ4" s="15"/>
-      <c r="CA4" s="8" t="str">
+      <c r="BZ4" s="6"/>
+      <c r="CA4" s="11" t="str">
         <f aca="false">DEC2HEX(CC4)</f>
         <v>0</v>
       </c>
-      <c r="CB4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="CC4" s="8" t="n">
+      <c r="CB4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="CC4" s="11" t="n">
         <f aca="false">SUM(BZ2*BZ3,CA2*CA3,CB2*CB3,CC2*CC3)</f>
         <v>0</v>
       </c>
-      <c r="CD4" s="15"/>
-      <c r="CE4" s="8" t="str">
+      <c r="CD4" s="6"/>
+      <c r="CE4" s="11" t="str">
         <f aca="false">DEC2HEX(CG4)</f>
         <v>0</v>
       </c>
-      <c r="CF4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="CG4" s="8" t="n">
+      <c r="CF4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="CG4" s="11" t="n">
         <f aca="false">SUM(CD2*CD3,CE2*CE3,CF2*CF3,CG2*CG3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
+      <c r="A6" s="18" t="n">
         <v>192</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="16" t="n">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="18" t="n">
         <v>168</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="16" t="n">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="18" t="n">
         <v>178</v>
       </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB6" s="16" t="n">
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="18" t="n">
         <v>36</v>
       </c>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="Q7" s="11"/>
-      <c r="S7" s="10"/>
-      <c r="Z7" s="11"/>
-      <c r="AB7" s="10"/>
-      <c r="AI7" s="11"/>
+      <c r="A7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="Q7" s="14"/>
+      <c r="S7" s="13"/>
+      <c r="Z7" s="14"/>
+      <c r="AB7" s="13"/>
+      <c r="AI7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="n">
+      <c r="A8" s="19" t="n">
         <v>128</v>
       </c>
-      <c r="B8" s="18" t="n">
+      <c r="B8" s="20" t="n">
         <v>64</v>
       </c>
-      <c r="C8" s="18" t="n">
+      <c r="C8" s="20" t="n">
         <v>32</v>
       </c>
-      <c r="D8" s="18" t="n">
+      <c r="D8" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F8" s="18" t="n">
+      <c r="F8" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="18" t="n">
+      <c r="G8" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="17" t="n">
+      <c r="H8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19" t="n">
         <v>128</v>
       </c>
-      <c r="K8" s="18" t="n">
+      <c r="K8" s="20" t="n">
         <v>64</v>
       </c>
-      <c r="L8" s="18" t="n">
+      <c r="L8" s="20" t="n">
         <v>32</v>
       </c>
-      <c r="M8" s="18" t="n">
+      <c r="M8" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="N8" s="18" t="n">
+      <c r="N8" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="O8" s="18" t="n">
+      <c r="O8" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="P8" s="18" t="n">
+      <c r="P8" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="Q8" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="17" t="n">
+      <c r="Q8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="19" t="n">
         <v>128</v>
       </c>
-      <c r="T8" s="18" t="n">
+      <c r="T8" s="20" t="n">
         <v>64</v>
       </c>
-      <c r="U8" s="18" t="n">
+      <c r="U8" s="20" t="n">
         <v>32</v>
       </c>
-      <c r="V8" s="18" t="n">
+      <c r="V8" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="W8" s="18" t="n">
+      <c r="W8" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="X8" s="18" t="n">
+      <c r="X8" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="Y8" s="18" t="n">
+      <c r="Y8" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="Z8" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="17" t="n">
+      <c r="Z8" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="19" t="n">
         <v>128</v>
       </c>
-      <c r="AC8" s="18" t="n">
+      <c r="AC8" s="20" t="n">
         <v>64</v>
       </c>
-      <c r="AD8" s="18" t="n">
+      <c r="AD8" s="20" t="n">
         <v>32</v>
       </c>
-      <c r="AE8" s="18" t="n">
+      <c r="AE8" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="AF8" s="18" t="n">
+      <c r="AF8" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="AG8" s="18" t="n">
+      <c r="AG8" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="AH8" s="18" t="n">
+      <c r="AH8" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="AI8" s="19" t="n">
+      <c r="AI8" s="21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="22" t="n">
         <f aca="false">SUM(A7*A8,B7*B8,C7*C8,D7*D8,E7*E8,F7*F8,G7*G8,H7*H8)</f>
         <v>192</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="N9" s="20" t="n">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="N9" s="22" t="n">
         <f aca="false">SUM(J7*J8,K7*K8,L7*L8,M7*M8,N7*N8,O7*O8,P7*P8,Q7*Q8)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="W9" s="20" t="n">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="W9" s="22" t="n">
         <f aca="false">SUM(S7*S8,T7*T8,U7*U8,V7*V8,W7*W8,X7*X8,Y7*Y8,Z7*Z8)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AF9" s="20" t="n">
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AF9" s="22" t="n">
         <f aca="false">SUM(AB7*AB8,AC7*AC8,AD7*AD8,AE7*AE8,AF7*AF8,AG7*AG8,AH7*AH8,AI7*AI8)</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
       <c r="D11" s="0"/>
@@ -1974,23 +2264,23 @@
       <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
-      <c r="U11" s="0"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0"/>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
-      <c r="AB11" s="0"/>
-      <c r="AC11" s="0"/>
-      <c r="AD11" s="0"/>
-      <c r="AE11" s="0"/>
-      <c r="AF11" s="0"/>
-      <c r="AG11" s="0"/>
-      <c r="AH11" s="0"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="0"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
@@ -2010,23 +2300,23 @@
       <c r="R12" s="0"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
-      <c r="U12" s="0"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0"/>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
-      <c r="AB12" s="0"/>
-      <c r="AC12" s="0"/>
-      <c r="AD12" s="0"/>
-      <c r="AE12" s="0"/>
-      <c r="AF12" s="0"/>
-      <c r="AG12" s="0"/>
-      <c r="AH12" s="0"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
       <c r="D13" s="0"/>
@@ -2046,524 +2336,524 @@
       <c r="R13" s="0"/>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
-      <c r="U13" s="0"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0"/>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
-      <c r="AB13" s="0"/>
-      <c r="AC13" s="0"/>
-      <c r="AD13" s="0"/>
-      <c r="AE13" s="0"/>
-      <c r="AF13" s="0"/>
-      <c r="AG13" s="0"/>
-      <c r="AH13" s="0"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="0"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="0"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0"/>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
-      <c r="AB14" s="0"/>
-      <c r="AC14" s="0"/>
-      <c r="AD14" s="0"/>
-      <c r="AE14" s="0"/>
-      <c r="AF14" s="0"/>
-      <c r="AG14" s="0"/>
-      <c r="AH14" s="0"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="0"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="0"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0"/>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
-      <c r="AB15" s="0"/>
-      <c r="AC15" s="0"/>
-      <c r="AD15" s="0"/>
-      <c r="AE15" s="0"/>
-      <c r="AF15" s="0"/>
-      <c r="AG15" s="0"/>
-      <c r="AH15" s="0"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="0"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
-      <c r="T16" s="0"/>
-      <c r="U16" s="0"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
-      <c r="X16" s="0"/>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
-      <c r="AB16" s="0"/>
-      <c r="AC16" s="0"/>
-      <c r="AD16" s="0"/>
-      <c r="AE16" s="0"/>
-      <c r="AF16" s="0"/>
-      <c r="AG16" s="0"/>
-      <c r="AH16" s="0"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="0"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="0"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0"/>
-      <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
-      <c r="AA17" s="0"/>
-      <c r="AB17" s="0"/>
-      <c r="AC17" s="0"/>
-      <c r="AD17" s="0"/>
-      <c r="AE17" s="0"/>
-      <c r="AF17" s="0"/>
-      <c r="AG17" s="0"/>
-      <c r="AH17" s="0"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="0"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
-      <c r="U18" s="0"/>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0"/>
-      <c r="Y18" s="0"/>
-      <c r="Z18" s="0"/>
-      <c r="AA18" s="0"/>
-      <c r="AB18" s="0"/>
-      <c r="AC18" s="0"/>
-      <c r="AD18" s="0"/>
-      <c r="AE18" s="0"/>
-      <c r="AF18" s="0"/>
-      <c r="AG18" s="0"/>
-      <c r="AH18" s="0"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="0"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="0"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0"/>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="0"/>
-      <c r="AA19" s="0"/>
-      <c r="AB19" s="0"/>
-      <c r="AC19" s="0"/>
-      <c r="AD19" s="0"/>
-      <c r="AE19" s="0"/>
-      <c r="AF19" s="0"/>
-      <c r="AG19" s="0"/>
-      <c r="AH19" s="0"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="0"/>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
-      <c r="R20" s="0"/>
-      <c r="S20" s="0"/>
-      <c r="T20" s="0"/>
-      <c r="U20" s="0"/>
-      <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
-      <c r="X20" s="0"/>
-      <c r="Y20" s="0"/>
-      <c r="Z20" s="0"/>
-      <c r="AA20" s="0"/>
-      <c r="AB20" s="0"/>
-      <c r="AC20" s="0"/>
-      <c r="AD20" s="0"/>
-      <c r="AE20" s="0"/>
-      <c r="AF20" s="0"/>
-      <c r="AG20" s="0"/>
-      <c r="AH20" s="0"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="0"/>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="R21" s="0"/>
-      <c r="S21" s="0"/>
-      <c r="T21" s="0"/>
-      <c r="U21" s="0"/>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0"/>
-      <c r="Y21" s="0"/>
-      <c r="Z21" s="0"/>
-      <c r="AA21" s="0"/>
-      <c r="AB21" s="0"/>
-      <c r="AC21" s="0"/>
-      <c r="AD21" s="0"/>
-      <c r="AE21" s="0"/>
-      <c r="AF21" s="0"/>
-      <c r="AG21" s="0"/>
-      <c r="AH21" s="0"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="0"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="0"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0"/>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
-      <c r="AB22" s="0"/>
-      <c r="AC22" s="0"/>
-      <c r="AD22" s="0"/>
-      <c r="AE22" s="0"/>
-      <c r="AF22" s="0"/>
-      <c r="AG22" s="0"/>
-      <c r="AH22" s="0"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="0"/>
-      <c r="N23" s="0"/>
-      <c r="O23" s="0"/>
-      <c r="P23" s="0"/>
-      <c r="Q23" s="0"/>
-      <c r="R23" s="0"/>
-      <c r="S23" s="0"/>
-      <c r="T23" s="0"/>
-      <c r="U23" s="0"/>
-      <c r="V23" s="0"/>
-      <c r="W23" s="0"/>
-      <c r="X23" s="0"/>
-      <c r="Y23" s="0"/>
-      <c r="Z23" s="0"/>
-      <c r="AA23" s="0"/>
-      <c r="AB23" s="0"/>
-      <c r="AC23" s="0"/>
-      <c r="AD23" s="0"/>
-      <c r="AE23" s="0"/>
-      <c r="AF23" s="0"/>
-      <c r="AG23" s="0"/>
-      <c r="AH23" s="0"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="0"/>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
-      <c r="P24" s="0"/>
-      <c r="Q24" s="0"/>
-      <c r="R24" s="0"/>
-      <c r="S24" s="0"/>
-      <c r="T24" s="0"/>
-      <c r="U24" s="0"/>
-      <c r="V24" s="0"/>
-      <c r="W24" s="0"/>
-      <c r="X24" s="0"/>
-      <c r="Y24" s="0"/>
-      <c r="Z24" s="0"/>
-      <c r="AA24" s="0"/>
-      <c r="AB24" s="0"/>
-      <c r="AC24" s="0"/>
-      <c r="AD24" s="0"/>
-      <c r="AE24" s="0"/>
-      <c r="AF24" s="0"/>
-      <c r="AG24" s="0"/>
-      <c r="AH24" s="0"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
-      <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="0"/>
-      <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
-      <c r="R25" s="0"/>
-      <c r="S25" s="0"/>
-      <c r="T25" s="0"/>
-      <c r="U25" s="0"/>
-      <c r="V25" s="0"/>
-      <c r="W25" s="0"/>
-      <c r="X25" s="0"/>
-      <c r="Y25" s="0"/>
-      <c r="Z25" s="0"/>
-      <c r="AA25" s="0"/>
-      <c r="AB25" s="0"/>
-      <c r="AC25" s="0"/>
-      <c r="AD25" s="0"/>
-      <c r="AE25" s="0"/>
-      <c r="AF25" s="0"/>
-      <c r="AG25" s="0"/>
-      <c r="AH25" s="0"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-      <c r="M26" s="0"/>
-      <c r="N26" s="0"/>
-      <c r="O26" s="0"/>
-      <c r="P26" s="0"/>
-      <c r="Q26" s="0"/>
-      <c r="R26" s="0"/>
-      <c r="S26" s="0"/>
-      <c r="T26" s="0"/>
-      <c r="U26" s="0"/>
-      <c r="V26" s="0"/>
-      <c r="W26" s="0"/>
-      <c r="X26" s="0"/>
-      <c r="Y26" s="0"/>
-      <c r="Z26" s="0"/>
-      <c r="AA26" s="0"/>
-      <c r="AB26" s="0"/>
-      <c r="AC26" s="0"/>
-      <c r="AD26" s="0"/>
-      <c r="AE26" s="0"/>
-      <c r="AF26" s="0"/>
-      <c r="AG26" s="0"/>
-      <c r="AH26" s="0"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="0"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="0"/>
-      <c r="V27" s="0"/>
-      <c r="W27" s="0"/>
-      <c r="X27" s="0"/>
-      <c r="Y27" s="0"/>
-      <c r="Z27" s="0"/>
-      <c r="AA27" s="0"/>
-      <c r="AB27" s="0"/>
-      <c r="AC27" s="0"/>
-      <c r="AD27" s="0"/>
-      <c r="AE27" s="0"/>
-      <c r="AF27" s="0"/>
-      <c r="AG27" s="0"/>
-      <c r="AH27" s="0"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -2604,4 +2894,222 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A3:H11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.06"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="23" t="n">
+        <f aca="false">10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="23" t="n">
+        <f aca="false">2^10</f>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="23" t="n">
+        <f aca="false">10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="23" t="n">
+        <f aca="false">2^20</f>
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="23" t="n">
+        <f aca="false">2^30</f>
+        <v>1073741824</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="23" t="n">
+        <f aca="false">10^12</f>
+        <v>1000000000000</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="23" t="n">
+        <f aca="false">2^40</f>
+        <v>1099511627776</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="23" t="n">
+        <f aca="false">10^15</f>
+        <v>1000000000000000</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="23" t="n">
+        <f aca="false">2^50</f>
+        <v>1125899906842624</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/IP-Adressen umrechnen.xlsx
+++ b/IP-Adressen umrechnen.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t xml:space="preserve">Dezimal (Basis 10)</t>
   </si>
@@ -81,36 +81,54 @@
     <t xml:space="preserve">16⁰</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F=15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziffern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8</t>
+  </si>
+  <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">Summe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ziffern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
     <t xml:space="preserve">f</t>
   </si>
   <si>
@@ -237,7 +255,7 @@
     <t xml:space="preserve">Petabyte</t>
   </si>
   <si>
-    <t xml:space="preserve">1 PT</t>
+    <t xml:space="preserve">1 PB</t>
   </si>
   <si>
     <t xml:space="preserve">10¹⁵ B</t>
@@ -250,6 +268,18 @@
   </si>
   <si>
     <t xml:space="preserve">2⁵⁰</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TiB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tb</t>
   </si>
 </sst>
 </file>
@@ -879,15 +909,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:V21"/>
+  <dimension ref="A4:Z23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q13" activeCellId="1" sqref="D9 Q13"/>
+      <selection pane="topLeft" activeCell="V7" activeCellId="0" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="1" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="6.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="23" style="1" width="3.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="12.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="27" style="1" width="3.83"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,31 +1021,31 @@
         <v>1</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
+      <c r="R6" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="50.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1072,14 +1106,14 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1087,7 +1121,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="6"/>
       <c r="M8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1125,7 +1159,7 @@
       <c r="E10" s="7"/>
       <c r="G10" s="7" t="n">
         <f aca="false">SUM(K6*K7,J6*J7,I6*I7,H6*H7,G6*G7)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1133,22 +1167,41 @@
       <c r="K10" s="7"/>
       <c r="M10" s="8" t="n">
         <f aca="false">SUM(R7*R11,Q7*Q11,P7*P11,O7*O11,N7*N11,M7*M11)</f>
-        <v>2297216</v>
+        <v>175</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
+      <c r="U10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z10" s="1" t="n">
+        <f aca="false">15*16</f>
+        <v>240</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M11" s="9" t="n">
         <f aca="false">HEX2DEC(M6)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="9" t="n">
         <f aca="false">HEX2DEC(N6)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11" s="9" t="n">
         <f aca="false">HEX2DEC(O6)</f>
@@ -1156,20 +1209,38 @@
       </c>
       <c r="P11" s="9" t="n">
         <f aca="false">HEX2DEC(P6)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="9" t="n">
         <f aca="false">HEX2DEC(Q6)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R11" s="9" t="n">
         <f aca="false">HEX2DEC(R6)</f>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z11" s="1" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1189,6 +1260,12 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="0"/>
+      <c r="Y12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z12" s="1" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -1206,18 +1283,20 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="R14" s="0"/>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
-      <c r="U14" s="0"/>
+      <c r="U14" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="V14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,55 +1310,70 @@
       <c r="S15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="1" t="n">
+        <v>28</v>
+      </c>
       <c r="M16" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O16" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="M17" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O17" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="1" t="n">
+        <v>12</v>
+      </c>
       <c r="M18" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O18" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="M19" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O19" s="1" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="M20" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O20" s="1" t="n">
         <v>14</v>
@@ -1287,13 +1381,35 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M21" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O21" s="1" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M23" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1331,7 +1447,7 @@
   <dimension ref="A1:CG27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="D9 B11"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1341,13 +1457,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -1365,13 +1481,13 @@
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
@@ -1383,7 +1499,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="12"/>
       <c r="AA1" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AB1" s="12"/>
       <c r="AC1" s="12"/>
@@ -1395,10 +1511,10 @@
       <c r="AG1" s="12"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AJ1" s="12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="AK1" s="12"/>
       <c r="AL1" s="12"/>
@@ -1422,7 +1538,7 @@
       <c r="AX1" s="12"/>
       <c r="AY1" s="12"/>
       <c r="AZ1" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="BA1" s="12" t="n">
         <v>4</v>
@@ -1431,7 +1547,7 @@
       <c r="BC1" s="12"/>
       <c r="BD1" s="12"/>
       <c r="BE1" s="12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="BF1" s="12"/>
       <c r="BG1" s="12"/>
@@ -1449,7 +1565,7 @@
       <c r="BO1" s="12"/>
       <c r="BP1" s="12"/>
       <c r="BQ1" s="11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="BR1" s="12" t="n">
         <v>4</v>
@@ -1458,7 +1574,7 @@
       <c r="BT1" s="12"/>
       <c r="BU1" s="12"/>
       <c r="BV1" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="BW1" s="12"/>
       <c r="BX1" s="12"/>
@@ -1470,7 +1586,7 @@
       <c r="CB1" s="12"/>
       <c r="CC1" s="12"/>
       <c r="CD1" s="12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="CE1" s="12"/>
       <c r="CF1" s="12"/>
@@ -1513,16 +1629,66 @@
       <c r="L2" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="P2" s="14"/>
-      <c r="S2" s="13"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="13"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="13"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="13"/>
-      <c r="AH2" s="14"/>
+      <c r="M2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ2" s="13"/>
       <c r="AM2" s="14"/>
       <c r="AN2" s="13"/>
@@ -1797,7 +1963,7 @@
         <v>F</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11" t="n">
         <f aca="false">SUM(A2*A3,B2*B3,C2*C3,D2*D3)</f>
@@ -1809,7 +1975,7 @@
         <v>E</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="11" t="n">
         <f aca="false">SUM(E2*E3,F2*F3,G2*G3,H2*H3)</f>
@@ -1821,7 +1987,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L4" s="11" t="n">
         <f aca="false">SUM(I2*I3,J2*J3,K2*K3,L2*L3)</f>
@@ -1833,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P4" s="11" t="n">
         <f aca="false">SUM(M2*M3,N2*N3,O2*O3,P2*P3)</f>
@@ -1842,50 +2008,50 @@
       <c r="S4" s="6"/>
       <c r="T4" s="11" t="str">
         <f aca="false">DEC2HEX(V4)</f>
-        <v>0</v>
+        <v>E</v>
       </c>
       <c r="U4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V4" s="11" t="n">
         <f aca="false">SUM(S2*S3,T2*T3,U2*U3,V2*V3)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="11" t="str">
         <f aca="false">DEC2HEX(Z4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z4" s="11" t="n">
         <f aca="false">SUM(W2*W3,X2*X3,Y2*Y3,Z2*Z3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="11" t="str">
         <f aca="false">DEC2HEX(AD4)</f>
-        <v>0</v>
+        <v>D</v>
       </c>
       <c r="AC4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AD4" s="11" t="n">
         <f aca="false">SUM(AA2*AA3,AB2*AB3,AC2*AC3,AD2*AD3)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="11" t="str">
         <f aca="false">DEC2HEX(AH4)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH4" s="11" t="n">
         <f aca="false">SUM(AE2*AE3,AF2*AF3,AG2*AG3,AH2*AH3)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AJ4" s="6"/>
       <c r="AK4" s="11" t="str">
@@ -1893,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM4" s="11" t="n">
         <f aca="false">SUM(AJ2*AJ3,AK2*AK3,AL2*AL3,AM2*AM3)</f>
@@ -1905,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="AP4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ4" s="11" t="n">
         <f aca="false">SUM(AN2*AN3,AO2*AO3,AP2*AP3,AQ2*AQ3)</f>
@@ -1917,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="AT4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU4" s="11" t="n">
         <f aca="false">SUM(AR2*AR3,AS2*AS3,AT2*AT3,AU2*AU3)</f>
@@ -1929,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY4" s="11" t="n">
         <f aca="false">SUM(AV2*AV3,AW2*AW3,AX2*AX3,AY2*AY3)</f>
@@ -1941,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD4" s="11" t="n">
         <f aca="false">SUM(BA2*BA3,BB2*BB3,BC2*BC3,BD2*BD3)</f>
@@ -1953,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="BG4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BH4" s="11" t="n">
         <f aca="false">SUM(BE2*BE3,BF2*BF3,BG2*BG3,BH2*BH3)</f>
@@ -1965,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="BK4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BL4" s="11" t="n">
         <f aca="false">SUM(BI2*BI3,BJ2*BJ3,BK2*BK3,BL2*BL3)</f>
@@ -1977,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="BO4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BP4" s="11" t="n">
         <f aca="false">SUM(BM2*BM3,BN2*BN3,BO2*BO3,BP2*BP3)</f>
@@ -1989,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="BT4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BU4" s="11" t="n">
         <f aca="false">SUM(BR2*BR3,BS2*BS3,BT2*BT3,BU2*BU3)</f>
@@ -2001,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="BX4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BY4" s="11" t="n">
         <f aca="false">SUM(BV2*BV3,BW2*BW3,BX2*BX3,BY2*BY3)</f>
@@ -2013,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="CB4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="CC4" s="11" t="n">
         <f aca="false">SUM(BZ2*BZ3,CA2*CA3,CB2*CB3,CC2*CC3)</f>
@@ -2025,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="CF4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="CG4" s="11" t="n">
         <f aca="false">SUM(CD2*CD3,CE2*CE3,CF2*CF3,CG2*CG3)</f>
@@ -2044,7 +2210,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J6" s="18" t="n">
         <v>168</v>
@@ -2057,7 +2223,7 @@
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="S6" s="18" t="n">
         <v>178</v>
@@ -2070,7 +2236,7 @@
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
       <c r="AA6" s="11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AB6" s="18" t="n">
         <v>36</v>
@@ -2108,12 +2274,78 @@
       <c r="H7" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="Q7" s="14"/>
-      <c r="S7" s="13"/>
-      <c r="Z7" s="14"/>
-      <c r="AB7" s="13"/>
-      <c r="AI7" s="14"/>
+      <c r="J7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="n">
@@ -2223,21 +2455,21 @@
       <c r="H9" s="22"/>
       <c r="N9" s="22" t="n">
         <f aca="false">SUM(J7*J8,K7*K8,L7*L8,M7*M8,N7*N8,O7*O8,P7*P8,Q7*Q8)</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="W9" s="22" t="n">
         <f aca="false">SUM(S7*S8,T7*T8,U7*U8,V7*V8,W7*W8,X7*X8,Y7*Y8,Z7*Z8)</f>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="X9" s="22"/>
       <c r="Y9" s="22"/>
       <c r="Z9" s="22"/>
       <c r="AF9" s="22" t="n">
         <f aca="false">SUM(AB7*AB8,AC7*AC8,AD7*AD8,AE7*AE8,AF7*AF8,AG7*AG8,AH7*AH8,AI7*AI8)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AG9" s="22"/>
       <c r="AH9" s="22"/>
@@ -2901,46 +3133,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:H11"/>
+  <dimension ref="A3:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.91"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -2948,16 +3181,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -2965,138 +3198,196 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D7" s="23" t="n">
         <f aca="false">10^3</f>
         <v>1000</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="23" t="n">
+        <v>56</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="23" t="n">
         <f aca="false">2^10</f>
         <v>1024</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D8" s="23" t="n">
         <f aca="false">10^6</f>
         <v>1000000</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>55</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="23" t="n">
+        <v>62</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="23" t="n">
         <f aca="false">2^20</f>
         <v>1048576</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="D9" s="23" t="n">
+        <f aca="false">10^9</f>
+        <v>1000000000</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="23" t="n">
         <f aca="false">2^30</f>
         <v>1073741824</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D10" s="23" t="n">
         <f aca="false">10^12</f>
         <v>1000000000000</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="F10" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="23" t="n">
+        <v>74</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="23" t="n">
         <f aca="false">2^40</f>
         <v>1099511627776</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D11" s="23" t="n">
         <f aca="false">10^15</f>
         <v>1000000000000000</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>73</v>
-      </c>
       <c r="F11" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="23" t="n">
+        <v>80</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="23" t="n">
         <f aca="false">2^50</f>
         <v>1125899906842624</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">56*1000/1024</f>
+        <v>54.6875</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">56*10^12/2^40</f>
+        <v>50.931703299284</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="n">
+        <f aca="false">56*(1000*1000*1000*1000)/(1024*1024*1024*1024)</f>
+        <v>50.931703299284</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">56*(1000*1000*1000*1000)/8/(1024*1024*1024*1024)</f>
+        <v>6.3664629124105</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
